--- a/biology/Médecine/Léo_Lasalle/Léo_Lasalle.xlsx
+++ b/biology/Médecine/Léo_Lasalle/Léo_Lasalle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9o_Lasalle</t>
+          <t>Léo_Lasalle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Léo Lasalle est un médecin de Montréal, Québec, spécialisé en médecine familiale, et travaillant en particulier en réadaptation des personnes aphasiques puis de celle des victimes de brûlures graves[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Léo Lasalle est un médecin de Montréal, Québec, spécialisé en médecine familiale, et travaillant en particulier en réadaptation des personnes aphasiques puis de celle des victimes de brûlures graves.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9o_Lasalle</t>
+          <t>Léo_Lasalle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fait ses études médicales à la nouvelle faculté de médecins de l'Université de Sherbrooke, fondée par son père Dr Gérald Lasalle[2]. Il est gradué de la première promotion en 1970 et ira travailler aux Iles de la Madeleine pendant 9 années. Il revient par la suite s'installer à Montréal. Rapidement il s'intéresse à la réadaptation des personnes aphasiques et puis consacre une partie de son travail dans la réadaptation des victimes de brûlures graves. En plus de sa pratique générale à Verdun, il travaille à l'hôpital Villa Medica.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait ses études médicales à la nouvelle faculté de médecins de l'Université de Sherbrooke, fondée par son père Dr Gérald Lasalle. Il est gradué de la première promotion en 1970 et ira travailler aux Iles de la Madeleine pendant 9 années. Il revient par la suite s'installer à Montréal. Rapidement il s'intéresse à la réadaptation des personnes aphasiques et puis consacre une partie de son travail dans la réadaptation des victimes de brûlures graves. En plus de sa pratique générale à Verdun, il travaille à l'hôpital Villa Medica.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9o_Lasalle</t>
+          <t>Léo_Lasalle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Organismes fondés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pendant ses études médicales, il a participé en 1970 à la mise sur pied et  a travaillé comme médecin auprès de la Clinique Odyssée, une clinique médico-légale pour venir en aide aux jeunes du centre-ville de Sherbrooke.    
-Il a cofondé l'organisme  le Théâtre Aphasique avec Anne-Marie Théroux[3] et Anne-Marie Delmas en 1994 et l'organisme Entraide Grands Brûlés, en 2008, avec Sophie Sureau et Louise Lapointe.
+Il a cofondé l'organisme  le Théâtre Aphasique avec Anne-Marie Théroux et Anne-Marie Delmas en 1994 et l'organisme Entraide Grands Brûlés, en 2008, avec Sophie Sureau et Louise Lapointe.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%C3%A9o_Lasalle</t>
+          <t>Léo_Lasalle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2010, il est co-récipiendaire du premier Prix Anne-Marie Théroux décerné par le Théâtre Aphasique en hommage aux fondateurs. Il a été choisi Bénévole de l'année au Québec en 2012[4], par un vote du grand public[5]. En 2012, il est aussi le récipiendaire de la médaille du jubilé de diamant de la reine Élisabeth II. Il a aussi reçu le prix Cœur et Action Québec 2014, décerné par un jury de pairs pour sa pratique novatrice, catégorie médecine.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2010, il est co-récipiendaire du premier Prix Anne-Marie Théroux décerné par le Théâtre Aphasique en hommage aux fondateurs. Il a été choisi Bénévole de l'année au Québec en 2012, par un vote du grand public. En 2012, il est aussi le récipiendaire de la médaille du jubilé de diamant de la reine Élisabeth II. Il a aussi reçu le prix Cœur et Action Québec 2014, décerné par un jury de pairs pour sa pratique novatrice, catégorie médecine.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%C3%A9o_Lasalle</t>
+          <t>Léo_Lasalle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est chercheur-clinicien et l'auteur de plusieurs publications sur la douleur neuropathique, le prurit et la cicatrisation chez les grands brûlés. Il a été le premier médecin-chercheur à publier sur l'utilisation de la naltrexone pour le traitement du prurit chez les grands brûlés[6][source insuffisante]. Il compte aussi plusieurs autres publications scientifiques.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est chercheur-clinicien et l'auteur de plusieurs publications sur la douleur neuropathique, le prurit et la cicatrisation chez les grands brûlés. Il a été le premier médecin-chercheur à publier sur l'utilisation de la naltrexone pour le traitement du prurit chez les grands brûlés[source insuffisante]. Il compte aussi plusieurs autres publications scientifiques.
 </t>
         </is>
       </c>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>L%C3%A9o_Lasalle</t>
+          <t>Léo_Lasalle</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Autres activités</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été membre du comité pour l'implantation de la radio communautaire des îles de la Madeleine CFIM, 92,7 FM.
 Il a été membre du comité provincial pour l'implantation des centres d’expertise pour le traitement des victimes de brûlures graves du Québec (division de la traumatologie, INESSS). 
